--- a/jahwa/家化云平台服务器资料统计表20181107.xlsx
+++ b/jahwa/家化云平台服务器资料统计表20181107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21101"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujiechun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujiechun\Desktop\workfile.git\trunk\jahwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014B01E5-FB63-4C6B-9501-526ECB5EF88F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C72355-CF1B-43DB-A823-FA97D64DF49D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="11760" tabRatio="275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>朱洁春</author>
+  </authors>
+  <commentList>
+    <comment ref="L18" authorId="0" shapeId="0" xr:uid="{9B0E728F-9B30-49F1-822F-4A8F5EACA724}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>朱洁春:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2018-11-16 等待最终用户确认后，关闭SSH密码登陆</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0" shapeId="0" xr:uid="{65D5BEFB-484E-494A-A800-8808FAD52BD1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>朱洁春:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+2018-11-16 等待最终用户确认后，关闭22端口，仅保留2322端口</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="259">
   <si>
     <t>信息部SFA项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,10 +603,6 @@
       </rPr>
       <t>地址</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1023,12 +1081,109 @@
     <t>10.0.0.5</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>华美家正式环境反向代理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>139.219.143.201</t>
+  </si>
+  <si>
+    <t>HMJPRDLB01</t>
+  </si>
+  <si>
+    <t>10.0.2.10</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国东部</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>R00troot@dm1n</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jahwaadmin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2322/22</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>centos 7</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMJPRDLB02</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准 F4 (4 vcpu，8 GB 内存)</t>
+  </si>
+  <si>
+    <t>6fcfd468-e9ba-4d82-bb46-30038f314c56</t>
+  </si>
+  <si>
+    <t>139.219.133.226</t>
+  </si>
+  <si>
+    <t>10.0.2.11</t>
+  </si>
+  <si>
+    <t>服务器名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源组</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>HMJPRD</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>brandwechat</t>
+  </si>
+  <si>
+    <t>HerbHF</t>
+  </si>
+  <si>
+    <t>herbwechat</t>
+  </si>
+  <si>
+    <t>JahwaSite-VM</t>
+  </si>
+  <si>
+    <t>HMJwechat01</t>
+  </si>
+  <si>
+    <t>skinserverrg</t>
+  </si>
+  <si>
+    <t>Skinserver</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>40.125.209.70</t>
+  </si>
+  <si>
+    <t>21be22ad-0f54-4157-a637-616a59e2d2a5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,13 +1282,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1221,7 +1396,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,22 +1457,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1641,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1999,7 +2168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="5">
         <v>102002</v>
@@ -2014,7 +2183,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>3</v>
@@ -2767,7 +2936,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J21" s="16">
         <v>42874</v>
@@ -2815,11 +2984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2827,20 +2996,21 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.875" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.125" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5" customWidth="1"/>
+    <col min="12" max="12" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>75</v>
       </c>
@@ -2850,704 +3020,884 @@
       <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="23">
+        <v>43101</v>
+      </c>
+      <c r="J2" t="s">
         <v>143</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="24">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="K2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2">
+        <v>33899</v>
+      </c>
+      <c r="N2" t="s">
+        <v>124</v>
+      </c>
+      <c r="O2" t="s">
+        <v>131</v>
+      </c>
+      <c r="P2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" t="s">
-        <v>192</v>
-      </c>
-      <c r="H2" s="20">
-        <v>43101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="L2">
-        <v>33899</v>
-      </c>
-      <c r="M2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="24">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>151</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
+        <v>145</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H3" s="20">
+        <v>120</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="23">
         <v>43101</v>
       </c>
-      <c r="I3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="L3">
+      <c r="J3" t="s">
+        <v>143</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M3">
         <v>33899</v>
       </c>
-      <c r="M3" t="s">
-        <v>154</v>
-      </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+      <c r="P3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
         <v>156</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" t="s">
         <v>157</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" t="s">
         <v>158</v>
       </c>
-      <c r="E4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4"/>
+      <c r="I4" s="23">
+        <v>42979</v>
+      </c>
+      <c r="J4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4">
+        <v>3389</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="O4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" t="s">
         <v>159</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="19">
-        <v>42979</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="19">
-        <v>3389</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="23">
+        <v>43070</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>126</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5">
+        <v>33899</v>
+      </c>
+      <c r="N5" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" t="s">
+        <v>202</v>
+      </c>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="23">
+        <v>43160</v>
+      </c>
+      <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6">
+        <v>33899</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" t="s">
         <v>131</v>
       </c>
-      <c r="D5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="20">
+      <c r="P6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="23">
         <v>43070</v>
       </c>
-      <c r="I5" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5">
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="23">
+        <v>43070</v>
+      </c>
+      <c r="J8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8">
+        <v>3306</v>
+      </c>
+      <c r="N8" t="s">
+        <v>140</v>
+      </c>
+      <c r="O8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I9" s="23">
+        <v>43132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" t="s">
+        <v>174</v>
+      </c>
+      <c r="M9">
         <v>33899</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N9" t="s">
         <v>124</v>
       </c>
-      <c r="N5" t="s">
-        <v>132</v>
-      </c>
-      <c r="O5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="O9" t="s">
+        <v>131</v>
+      </c>
+      <c r="P9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="23">
+        <v>43132</v>
+      </c>
+      <c r="J10" t="s">
+        <v>143</v>
+      </c>
+      <c r="K10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" t="s">
+        <v>175</v>
+      </c>
+      <c r="M10">
+        <v>33899</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="20">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
         <v>189</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H11" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="23">
+        <v>43132</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L11" t="s">
+        <v>175</v>
+      </c>
+      <c r="M11">
+        <v>33899</v>
+      </c>
+      <c r="N11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O11" t="s">
         <v>131</v>
       </c>
-      <c r="D6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" t="s">
-        <v>184</v>
-      </c>
-      <c r="G6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H6">
+      <c r="P11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="23">
         <v>43160</v>
       </c>
-      <c r="I6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="L6">
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12">
         <v>33899</v>
       </c>
-      <c r="M6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N6" t="s">
-        <v>132</v>
-      </c>
-      <c r="O6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="N12" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" t="s">
         <v>131</v>
       </c>
-      <c r="D7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H7" s="20">
-        <v>43070</v>
-      </c>
-      <c r="I7" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N7" t="s">
-        <v>132</v>
-      </c>
-      <c r="O7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="24">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H8" s="20">
-        <v>43070</v>
-      </c>
-      <c r="I8" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="19">
-        <v>3306</v>
-      </c>
-      <c r="M8" t="s">
-        <v>141</v>
-      </c>
-      <c r="N8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A9" s="24">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="P12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>194</v>
       </c>
-      <c r="G9" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H9" s="22">
-        <v>43132</v>
-      </c>
-      <c r="I9" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9">
-        <v>33899</v>
-      </c>
-      <c r="M9" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" t="s">
-        <v>132</v>
-      </c>
-      <c r="O9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.15">
-      <c r="A10" s="24">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H10" s="22">
-        <v>43132</v>
-      </c>
-      <c r="I10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10">
-        <v>33899</v>
-      </c>
-      <c r="M10" t="s">
-        <v>125</v>
-      </c>
-      <c r="N10" t="s">
-        <v>132</v>
-      </c>
-      <c r="O10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="24">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="H11" s="22">
-        <v>43132</v>
-      </c>
-      <c r="I11" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11">
-        <v>33899</v>
-      </c>
-      <c r="M11" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" t="s">
-        <v>132</v>
-      </c>
-      <c r="O11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.15">
-      <c r="A12" s="24">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E12" t="s">
-        <v>198</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="22">
-        <v>43160</v>
-      </c>
-      <c r="I12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J12" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="L12">
-        <v>33899</v>
-      </c>
-      <c r="M12" t="s">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s">
-        <v>132</v>
-      </c>
-      <c r="O12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="H13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="M13">
+        <v>3389</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" t="s">
         <v>212</v>
       </c>
-      <c r="D13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G14" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" t="s">
         <v>213</v>
       </c>
-      <c r="F13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I13" t="s">
-        <v>216</v>
-      </c>
-      <c r="J13" t="s">
-        <v>209</v>
-      </c>
-      <c r="K13" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13">
-        <v>33899</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" s="23"/>
+      <c r="J14" t="s">
         <v>215</v>
-      </c>
-      <c r="I14" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" t="s">
-        <v>209</v>
       </c>
       <c r="K14" t="s">
         <v>208</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14">
         <v>33899</v>
       </c>
-      <c r="M14" t="s">
-        <v>125</v>
-      </c>
       <c r="N14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15">
+        <v>124</v>
+      </c>
+      <c r="O14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" t="s">
+        <v>207</v>
+      </c>
+      <c r="M15">
+        <v>33899</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="O15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M16">
+        <v>33899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>222</v>
       </c>
-      <c r="C15" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" t="s">
         <v>225</v>
       </c>
-      <c r="E15" t="s">
-        <v>226</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G17" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>230</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" t="s">
         <v>227</v>
       </c>
-      <c r="G15" t="s">
-        <v>214</v>
-      </c>
-      <c r="I15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L15">
+      <c r="M17">
         <v>33899</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D16" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F16" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" t="s">
+    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>231</v>
       </c>
-      <c r="I16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L16">
-        <v>33899</v>
+      <c r="C18" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+      <c r="H18" t="s">
+        <v>234</v>
+      </c>
+      <c r="I18" s="23">
+        <v>43405</v>
+      </c>
+      <c r="J18" t="s">
+        <v>235</v>
+      </c>
+      <c r="K18" t="s">
+        <v>237</v>
+      </c>
+      <c r="L18" t="s">
+        <v>236</v>
+      </c>
+      <c r="M18" t="s">
+        <v>238</v>
+      </c>
+      <c r="N18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" t="s">
+        <v>243</v>
+      </c>
+      <c r="H19" t="s">
+        <v>244</v>
+      </c>
+      <c r="I19" s="23">
+        <v>43405</v>
+      </c>
+      <c r="J19" t="s">
+        <v>235</v>
+      </c>
+      <c r="K19" t="s">
+        <v>237</v>
+      </c>
+      <c r="L19" t="s">
+        <v>236</v>
+      </c>
+      <c r="M19" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="K7" r:id="rId2" display="Jahwa!@#456" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="K9" r:id="rId3" display="Jahwa!@#456789_x000a_" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="K10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="K12" r:id="rId6" xr:uid="{B9C5B615-F67D-41AD-94F7-93D00863F887}"/>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="L7" r:id="rId2" display="Jahwa!@#456" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId3" display="Jahwa!@#456789_x000a_" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="L10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="L11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L12" r:id="rId6" xr:uid="{B9C5B615-F67D-41AD-94F7-93D00863F887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/jahwa/家化云平台服务器资料统计表20181107.xlsx
+++ b/jahwa/家化云平台服务器资料统计表20181107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujiechun\Desktop\workfile.git\trunk\jahwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C72355-CF1B-43DB-A823-FA97D64DF49D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15992D95-30D1-4EC2-8100-240F7EAF1518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="11760" tabRatio="275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1181,7 +1181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1466,7 +1466,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2987,8 +2987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3888,16 +3888,15 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="L7" r:id="rId2" display="Jahwa!@#456" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="L9" r:id="rId3" display="Jahwa!@#456789_x000a_" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="L10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="L11" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="L12" r:id="rId6" xr:uid="{B9C5B615-F67D-41AD-94F7-93D00863F887}"/>
+    <hyperlink ref="L7" r:id="rId1" display="Jahwa!@#456" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="L9" r:id="rId2" display="Jahwa!@#456789_x000a_" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="L10" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="L11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="L12" r:id="rId5" xr:uid="{B9C5B615-F67D-41AD-94F7-93D00863F887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/jahwa/家化云平台服务器资料统计表20181107.xlsx
+++ b/jahwa/家化云平台服务器资料统计表20181107.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhujiechun\Desktop\workfile.git\trunk\jahwa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15992D95-30D1-4EC2-8100-240F7EAF1518}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADEC8A4-AE93-467D-A04F-861C99F61157}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19440" windowHeight="11760" tabRatio="275" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="263">
   <si>
     <t>信息部SFA项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,6 +1174,21 @@
   </si>
   <si>
     <t>21be22ad-0f54-4157-a637-616a59e2d2a5</t>
+  </si>
+  <si>
+    <t>玉泽微信平台</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>yuzewhcat</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>42.159.152.64</t>
+  </si>
+  <si>
+    <t>10.0.0.5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2985,10 +3000,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:Q19"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3764,7 +3779,7 @@
         <v>33899</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -3797,7 +3812,7 @@
         <v>33899</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
         <v>17</v>
       </c>
@@ -3841,7 +3856,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
         <v>18</v>
       </c>
@@ -3883,6 +3898,50 @@
       </c>
       <c r="N19" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" t="s">
+        <v>260</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="I20" s="23">
+        <v>43405</v>
+      </c>
+      <c r="J20" t="s">
+        <v>235</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20">
+        <v>33899</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
